--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
     <sheet name="Subs" sheetId="2" r:id="rId2"/>
-    <sheet name="Plumbing" sheetId="3" r:id="rId3"/>
-    <sheet name="GCcandidates" sheetId="4" r:id="rId4"/>
+    <sheet name="Electrical" sheetId="5" r:id="rId3"/>
+    <sheet name="Plumbing" sheetId="3" r:id="rId4"/>
+    <sheet name="GCcandidates" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="279">
   <si>
     <t>Apergis</t>
   </si>
@@ -514,9 +515,6 @@
     <t>Wilcox Electric</t>
   </si>
   <si>
-    <t>w: 202-546-1010</t>
-  </si>
-  <si>
     <t>Aspen Hill Plumbing</t>
   </si>
   <si>
@@ -621,10 +619,6 @@
   <si>
     <t>12/5: Contacted by email. Briefly described project and asked for a bid.
 12/5: Declined. Too busy.</t>
-  </si>
-  <si>
-    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.
-12/7: Called and set up a site visit for Dec 28 between 11:30 and 12:30.</t>
   </si>
   <si>
     <t>Angie's list (A; 294 reviews)</t>
@@ -762,65 +756,10 @@
 12/21: Merrick lowered price to $24,600 or $21,500 (I buy lights and bath fans).</t>
   </si>
   <si>
-    <t>12/17: Doug put us in contact. We agreed to meet Friday 12/18 at 2pm. I sent email with plans.
-12/18: We will meet 12/28 at 9:30</t>
-  </si>
-  <si>
-    <t>12/9: Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.</t>
-  </si>
-  <si>
-    <t>12/10: Shawn Mullan called asked if he could come early, 9am.</t>
-  </si>
-  <si>
-    <t>12/11: Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
-  </si>
-  <si>
-    <t>12/15: Had not heard anything. Called to see if interested. Agreed on site visit on Wed 12/16 around 4pm. Need to deal with drain in foundation.</t>
-  </si>
-  <si>
-    <t>12/16: Site visit went well. He will be able to do the project. Asked for me to send building permit #. Asked me to talk to 3rd party inspector about area drain (to sewer or to sump). He will send an estimate.</t>
-  </si>
-  <si>
-    <t>12/17: Sent building permit number. Began relationship with inspector. Need to talk to inspector. Received estimate of project $3000.</t>
-  </si>
-  <si>
-    <t>12/18: Made plan with plumber and paid him $1500 deposit.</t>
-  </si>
-  <si>
-    <t>12/23: Change of plans. Use existing area drain. No plumbing now.</t>
-  </si>
-  <si>
-    <t>12/27: Asked Bob to visit Tuesday when drains exposed for concrete. Asked for receipts ($500, $1500). Asked for estimates (plumbing, heating).</t>
-  </si>
-  <si>
     <t>Bob Gable</t>
   </si>
   <si>
     <t>GC notes</t>
-  </si>
-  <si>
-    <t>12/27: Concrete entry way, closet, and steps should be ready for concrete on Wednesday 12/30. Plumber will hopefully visit Tuesday. I asked if Oscar needed an inspection.</t>
-  </si>
-  <si>
-    <t>12/22: Inspector returned and passed us for concrete footings.</t>
-  </si>
-  <si>
-    <t>12/24: North wall of back entry wall too tall. We will talk about it on Satuday 12/26</t>
-  </si>
-  <si>
-    <t>12/26: Met with Oscar and wall is being reduced. We talked about dirt being used to regrade sloping corner of yard. Oscar said he would do it.</t>
-  </si>
-  <si>
-    <t>12/26: I asked that I have a chance to request privacy windows for the master bath.</t>
-  </si>
-  <si>
-    <t>12/26: Oscar offered to put me in touch with his electrician. We also visited SPRC about the columns.</t>
-  </si>
-  <si>
-    <t>12/26: I asked that AC lines be cut and that the copper be saved for scrap sale. Oscar said ok.</t>
-  </si>
-  <si>
-    <t>12/27: Follow up email on items from 12/26.</t>
   </si>
   <si>
     <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
@@ -828,6 +767,175 @@
 12/8: Dave confirmed. He will call with 30 min ETA.
 12/14: Site visit went well. Suggested keep the stack outside to the existing (to be moved) drain. Same with drain for utility sink. Also suggested to keep heating system simple. Will send estimate by the end of the week. Does not believe can do the work before the new year.
 12/18: Dave gave estimates. Ground work and general remodel plumbing $25,750, hot water recirculating system $1850, in floor radiant heating $13,720, runtall radiators $23,040</t>
+  </si>
+  <si>
+    <t>Wilcox</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>crystal@wilcox-electric.com</t>
+  </si>
+  <si>
+    <t>w: 202-546-1010
+w: 301-583-8888
+m: 202-664-4023</t>
+  </si>
+  <si>
+    <t>12/17: Doug put us in contact. We agreed to meet Friday 12/18 at 2pm. I sent email with plans.
+12/18: We will meet 12/28 at 9:30
+12/28: Eric forgot. I called him and he came quickly. We reviewed the job. He did not believe that the panel needed to be moved. He will put together a proposal in about a week. NOT AN ELECTRICIAN. Associated with licensed electrician Larry from Advanced Construction. 240-752-2588</t>
+  </si>
+  <si>
+    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.
+12/7: Called and set up a site visit for Dec 28 between 11:30 and 12:30.
+12/28: Steve Wilcox arrived. We reviewed the project. He thought the panel needed to be moved or the hot water heater needed to be moved. He will put together a proposal in about a week. He asked me to email plans, which I did.</t>
+  </si>
+  <si>
+    <t>McKevitt</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>HVAC/Plumbing</t>
+  </si>
+  <si>
+    <t>m: 240-527-0569</t>
+  </si>
+  <si>
+    <t>FDA: Bobby Thompson</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Rudy</t>
+  </si>
+  <si>
+    <t>JBR Electric, LLC</t>
+  </si>
+  <si>
+    <t>jbrrudylopez@yahoo.com</t>
+  </si>
+  <si>
+    <t>m: 301-537-3714</t>
+  </si>
+  <si>
+    <t>Rudy Lopez</t>
+  </si>
+  <si>
+    <t>Concrete on track for inspection Wed afternoon. Plumbing and electrical related to concrete in back should be also be ready. Discussed grading back yard. Remove timbers of raised garden. Add 6x6 timbers with dead men as a retaining wall in front of fence. Add rain leader from house to drain into retaining wall outside fence, which has a drain.</t>
+  </si>
+  <si>
+    <t>Concrete entry way, closet, and steps should be ready for concrete on Wednesday 12/30. Plumber will hopefully visit Tuesday. I asked if Oscar needed an inspection.</t>
+  </si>
+  <si>
+    <t>Follow up email on items from 12/26.</t>
+  </si>
+  <si>
+    <t>Met with Oscar and wall is being reduced. We talked about dirt being used to regrade sloping corner of yard. Oscar said he would do it.</t>
+  </si>
+  <si>
+    <t>I asked that I have a chance to request privacy windows for the master bath.</t>
+  </si>
+  <si>
+    <t>Oscar offered to put me in touch with his electrician. We also visited SPRC about the columns.</t>
+  </si>
+  <si>
+    <t>I asked that AC lines be cut and that the copper be saved for scrap sale. Oscar said ok.</t>
+  </si>
+  <si>
+    <t>North wall of back entry wall too tall. We will talk about it on Satuday 12/26</t>
+  </si>
+  <si>
+    <t>Inspector returned and passed us for concrete footings.</t>
+  </si>
+  <si>
+    <t>Oscar Flores sent Rudy to visit. He can do the job for $14,900, not sure about fixtures, coax/ethernet. I said lets do it. He will do rough-out for sconces at steps in back right away.</t>
+  </si>
+  <si>
+    <t>Asked Bob to visit Tuesday when drains exposed for concrete. Asked for receipts ($500, $1500). Asked for estimates (plumbing, heating).</t>
+  </si>
+  <si>
+    <t>Change of plans. Use existing area drain. No plumbing now.</t>
+  </si>
+  <si>
+    <t>Made plan with plumber and paid him $1500 deposit.</t>
+  </si>
+  <si>
+    <t>Sent building permit number. Began relationship with inspector. Need to talk to inspector. Received estimate of project $3000.</t>
+  </si>
+  <si>
+    <t>Site visit went well. He will be able to do the project. Asked for me to send building permit #. Asked me to talk to 3rd party inspector about area drain (to sewer or to sump). He will send an estimate.</t>
+  </si>
+  <si>
+    <t>Had not heard anything. Called to see if interested. Agreed on site visit on Wed 12/16 around 4pm. Need to deal with drain in foundation.</t>
+  </si>
+  <si>
+    <t>Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
+  </si>
+  <si>
+    <t>Shawn Mullan called asked if he could come early, 9am.</t>
+  </si>
+  <si>
+    <t>Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.</t>
+  </si>
+  <si>
+    <t>contatct date</t>
+  </si>
+  <si>
+    <t>Bob visited. We decided to cut and cap the drain from the gutters. He will do Wed am 12/30. We talked about moving water heater options and also talked about replacing boiler with condenser boiler/hot water heater combo. He sent brochure. It is small and can go anywhere. He will get me an estimate on the main plumbing job for the new bathrooms. He will get me receipts for work.</t>
+  </si>
+  <si>
+    <t>Researched 96,000 BTU Output Challenger Combo Boiler - Space Heating &amp; Domestic Hot Water (condensing)
+SKU:CC-125, Brand: Triangle Tube. It costs $2659.95. Replace existing is top option.</t>
+  </si>
+  <si>
+    <t>Bob cut and capped original drain from gutters.</t>
+  </si>
+  <si>
+    <t>Inspector came and passed our foundation/slab at back exit. He said replacing boiler and HW with small combo unit was a good idea. Eliminate conflicts with existing panel. Cement not coming until Monday. We discussed demo chimney instead of repair and extend: even swap. Proposal for church work coming tomorrow morning.</t>
+  </si>
+  <si>
+    <t>Discussed adding a sub-panel on the third floor instead of new panel in basement. Hoped for a discoung.</t>
+  </si>
+  <si>
+    <t>Can't start today. On another job. He will be ready for cement on Monday. He will install phone/coax/ethernet offsetting cost bonus of the sub-panel approach.</t>
+  </si>
+  <si>
+    <t>Otvos</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>WarmBoard</t>
+  </si>
+  <si>
+    <t>In-floor radiant heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potvos@warmboard.com</t>
+  </si>
+  <si>
+    <t>w: 831-219-1036</t>
+  </si>
+  <si>
+    <t>Began proposal process. Shared drawings pdf and gross estimates ($7.59 -Structural, $6.99 -Retrofit). Next steps: cad files ($200 fee if pdf), design ($500), and design questions.</t>
+  </si>
+  <si>
+    <t>Ahmann</t>
+  </si>
+  <si>
+    <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details.</t>
+  </si>
+  <si>
+    <t>Bob replied. $7000 to install combo boiler/dhw and $12000 for bathrooms.</t>
+  </si>
+  <si>
+    <t>I said let's do Bosch. Asked when and how long it will take. I asked to talk about details. Bob called later and we talked about details. I will cc him when I email warmboard supplier.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -916,26 +1024,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,86 +1375,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="25" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="37" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="30.42578125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>42368</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>42367</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>42365</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>237</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>42365</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42364</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>42364</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>42364</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>42364</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>42362</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>42360</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O11">
-    <sortCondition descending="1" ref="A2:A11"/>
+  <sortState ref="B2:P11">
+    <sortCondition descending="1" ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="9" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,14 +1507,15 @@
     <col min="4" max="5" width="18.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37" style="9" customWidth="1"/>
-    <col min="9" max="9" width="37" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="5" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="5"/>
+    <col min="8" max="8" width="11.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="37" style="18" customWidth="1"/>
+    <col min="10" max="10" width="37" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="5" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1353,46 +1534,49 @@
       <c r="G1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1400,590 +1584,668 @@
         <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="15" t="str">
-        <f>(Plumbing!A3)</f>
-        <v>12/27: Asked Bob to visit Tuesday when drains exposed for concrete. Asked for receipts ($500, $1500). Asked for estimates (plumbing, heating).</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>200</v>
+        <v>208</v>
+      </c>
+      <c r="H4" s="19">
+        <f>Plumbing!$A$8</f>
+        <v>42367</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f>(Plumbing!$B$3)</f>
+        <v>I said let's do Bosch. Asked when and how long it will take. I asked to talk about details. Bob called later and we talked about details. I will cc him when I email warmboard supplier.</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H6" s="19">
+        <f>Electrical!$A$5</f>
+        <v>42367</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>Electrical!$B$5</f>
+        <v>Oscar Flores sent Rudy to visit. He can do the job for $14,900, not sure about fixtures, coax/ethernet. I said lets do it. He will do rough-out for sconces at steps in back right away.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="G7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="H7" s="19">
+        <v>42369</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>213</v>
+        <v>139</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="330" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I16" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="17" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="18" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I18" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+    <row r="19" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="K19" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I17" s="5" t="s">
+    </row>
+    <row r="21" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>159</v>
+    </row>
+    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K21">
+  <autoFilter ref="A1:L23">
     <sortState ref="A2:K21">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="edyleonel2013@gmail.com"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="F15" r:id="rId3"/>
-    <hyperlink ref="F16" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7" display="merrickbes@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F18" r:id="rId11"/>
-    <hyperlink ref="F10" r:id="rId12" display="sales@rbincorporated.com"/>
-    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId1" display="edyleonel2013@gmail.com"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F17" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F23" r:id="rId10"/>
+    <hyperlink ref="F20" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12" display="sales@rbincorporated.com"/>
+    <hyperlink ref="F10" r:id="rId13"/>
     <hyperlink ref="F2" r:id="rId14"/>
+    <hyperlink ref="F9" r:id="rId15"/>
+    <hyperlink ref="F6" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>225</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>42368</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>42367</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>42367</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1992,6 +2254,155 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>42372</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>42372</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>42370</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>42368</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42368</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>42367</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>42365</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>42361</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>42356</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>42355</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>42354</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>42353</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>42349</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>42348</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>42347</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -2407,7 +2818,7 @@
       <c r="E10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="287">
   <si>
     <t>Apergis</t>
   </si>
@@ -745,6 +745,201 @@
 Washington, DC 20016 </t>
   </si>
   <si>
+    <t>Bob Gable</t>
+  </si>
+  <si>
+    <t>GC notes</t>
+  </si>
+  <si>
+    <t>Wilcox</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>crystal@wilcox-electric.com</t>
+  </si>
+  <si>
+    <t>w: 202-546-1010
+w: 301-583-8888
+m: 202-664-4023</t>
+  </si>
+  <si>
+    <t>McKevitt</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>HVAC/Plumbing</t>
+  </si>
+  <si>
+    <t>m: 240-527-0569</t>
+  </si>
+  <si>
+    <t>FDA: Bobby Thompson</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Rudy</t>
+  </si>
+  <si>
+    <t>JBR Electric, LLC</t>
+  </si>
+  <si>
+    <t>jbrrudylopez@yahoo.com</t>
+  </si>
+  <si>
+    <t>m: 301-537-3714</t>
+  </si>
+  <si>
+    <t>Rudy Lopez</t>
+  </si>
+  <si>
+    <t>Concrete on track for inspection Wed afternoon. Plumbing and electrical related to concrete in back should be also be ready. Discussed grading back yard. Remove timbers of raised garden. Add 6x6 timbers with dead men as a retaining wall in front of fence. Add rain leader from house to drain into retaining wall outside fence, which has a drain.</t>
+  </si>
+  <si>
+    <t>Concrete entry way, closet, and steps should be ready for concrete on Wednesday 12/30. Plumber will hopefully visit Tuesday. I asked if Oscar needed an inspection.</t>
+  </si>
+  <si>
+    <t>Follow up email on items from 12/26.</t>
+  </si>
+  <si>
+    <t>Met with Oscar and wall is being reduced. We talked about dirt being used to regrade sloping corner of yard. Oscar said he would do it.</t>
+  </si>
+  <si>
+    <t>I asked that I have a chance to request privacy windows for the master bath.</t>
+  </si>
+  <si>
+    <t>Oscar offered to put me in touch with his electrician. We also visited SPRC about the columns.</t>
+  </si>
+  <si>
+    <t>I asked that AC lines be cut and that the copper be saved for scrap sale. Oscar said ok.</t>
+  </si>
+  <si>
+    <t>North wall of back entry wall too tall. We will talk about it on Satuday 12/26</t>
+  </si>
+  <si>
+    <t>Inspector returned and passed us for concrete footings.</t>
+  </si>
+  <si>
+    <t>Oscar Flores sent Rudy to visit. He can do the job for $14,900, not sure about fixtures, coax/ethernet. I said lets do it. He will do rough-out for sconces at steps in back right away.</t>
+  </si>
+  <si>
+    <t>Asked Bob to visit Tuesday when drains exposed for concrete. Asked for receipts ($500, $1500). Asked for estimates (plumbing, heating).</t>
+  </si>
+  <si>
+    <t>Change of plans. Use existing area drain. No plumbing now.</t>
+  </si>
+  <si>
+    <t>Made plan with plumber and paid him $1500 deposit.</t>
+  </si>
+  <si>
+    <t>Sent building permit number. Began relationship with inspector. Need to talk to inspector. Received estimate of project $3000.</t>
+  </si>
+  <si>
+    <t>Site visit went well. He will be able to do the project. Asked for me to send building permit #. Asked me to talk to 3rd party inspector about area drain (to sewer or to sump). He will send an estimate.</t>
+  </si>
+  <si>
+    <t>Had not heard anything. Called to see if interested. Agreed on site visit on Wed 12/16 around 4pm. Need to deal with drain in foundation.</t>
+  </si>
+  <si>
+    <t>Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
+  </si>
+  <si>
+    <t>Shawn Mullan called asked if he could come early, 9am.</t>
+  </si>
+  <si>
+    <t>Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.</t>
+  </si>
+  <si>
+    <t>Bob visited. We decided to cut and cap the drain from the gutters. He will do Wed am 12/30. We talked about moving water heater options and also talked about replacing boiler with condenser boiler/hot water heater combo. He sent brochure. It is small and can go anywhere. He will get me an estimate on the main plumbing job for the new bathrooms. He will get me receipts for work.</t>
+  </si>
+  <si>
+    <t>Researched 96,000 BTU Output Challenger Combo Boiler - Space Heating &amp; Domestic Hot Water (condensing)
+SKU:CC-125, Brand: Triangle Tube. It costs $2659.95. Replace existing is top option.</t>
+  </si>
+  <si>
+    <t>Bob cut and capped original drain from gutters.</t>
+  </si>
+  <si>
+    <t>Inspector came and passed our foundation/slab at back exit. He said replacing boiler and HW with small combo unit was a good idea. Eliminate conflicts with existing panel. Cement not coming until Monday. We discussed demo chimney instead of repair and extend: even swap. Proposal for church work coming tomorrow morning.</t>
+  </si>
+  <si>
+    <t>Discussed adding a sub-panel on the third floor instead of new panel in basement. Hoped for a discoung.</t>
+  </si>
+  <si>
+    <t>Can't start today. On another job. He will be ready for cement on Monday. He will install phone/coax/ethernet offsetting cost bonus of the sub-panel approach.</t>
+  </si>
+  <si>
+    <t>Otvos</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>WarmBoard</t>
+  </si>
+  <si>
+    <t>In-floor radiant heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potvos@warmboard.com</t>
+  </si>
+  <si>
+    <t>w: 831-219-1036</t>
+  </si>
+  <si>
+    <t>Ahmann</t>
+  </si>
+  <si>
+    <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details.</t>
+  </si>
+  <si>
+    <t>Bob replied. $7000 to install combo boiler/dhw and $12000 for bathrooms.</t>
+  </si>
+  <si>
+    <t>I said let's do Bosch. Asked when and how long it will take. I asked to talk about details. Bob called later and we talked about details. I will cc him when I email warmboard supplier.</t>
+  </si>
+  <si>
+    <t>Rudy provided proposal. $14,900</t>
+  </si>
+  <si>
+    <t>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</t>
+  </si>
+  <si>
+    <t>Bob gave his recommendation after reading the manuals for the Bosch and Triangle Tube. He recommended Triangle Tube. I said ok. He will get started. Parts delivered in about a week. Install in one day.</t>
+  </si>
+  <si>
+    <t>Oscar Flores</t>
+  </si>
+  <si>
+    <t>1/4/16: Asked for and received signed relase form for CAD drawings. Shared CAD drawings and preliminary responses to questions about installation. Paid $500 design fee.
+12/31/15: Began proposal process. Shared drawings pdf and gross estimates ($7.59 -Structural, $6.99 -Retrofit). Next steps: cad files ($200 fee if pdf), design ($500), and design questions.</t>
+  </si>
+  <si>
+    <t>12/17: Doug put us in contact. We agreed to meet Friday 12/18 at 2pm. I sent email with plans.
+12/18: We will meet 12/28 at 9:30
+12/28: Eric forgot. I called him and he came quickly. We reviewed the job. He did not believe that the panel needed to be moved. He will put together a proposal in about a week. NOT AN ELECTRICIAN. Associated with licensed electrician Larry from Advanced Construction. 240-752-2588
+1/5: I emailed Eric to say I signed a contract with another electrician.</t>
+  </si>
+  <si>
+    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
+12/7: Dave Glick (owner) responded. Offered to come Monday 2-4pm or Tuesday 7-8am. I accepted Monday 2pm.
+12/8: Dave confirmed. He will call with 30 min ETA.
+12/14: Site visit went well. Suggested keep the stack outside to the existing (to be moved) drain. Same with drain for utility sink. Also suggested to keep heating system simple. Will send estimate by the end of the week. Does not believe can do the work before the new year.
+12/18: Dave gave estimates. Ground work and general remodel plumbing $25,750, hot water recirculating system $1850, in floor radiant heating $13,720, runtall radiators $23,040
+1/5: I emailed Dave to say I signed a contract with another plumber.</t>
+  </si>
+  <si>
+    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.
+12/7: Called and set up a site visit for Dec 28 between 11:30 and 12:30.
+12/28: Steve Wilcox arrived. We reviewed the project. He thought the panel needed to be moved or the hot water heater needed to be moved. He will put together a proposal in about a week. He asked me to email plans, which I did.
+1/5: I received an email from Wilcox admin support saying they printed my plans. I responded that I have already signed a contract with another electrician. Admin responded with regrets.</t>
+  </si>
+  <si>
     <t>10/6: Contacted. VM. Sent a text.
 10/16: After other attempts to make contact I learned that I had an old phone number. Raj called and handed Merrick the phone.10/19: Established contact by phone. Sent plans and arranged site visit for Wednesday 10/21 10am.
 10/21: Site visit went ok. I believe we agreed he would send an estimate.
@@ -753,189 +948,23 @@
 11/28: Asked for estimate again
 11/30: Received estimate. $26,800
 12/17: Asked for ideas to reduce price.
-12/21: Merrick lowered price to $24,600 or $21,500 (I buy lights and bath fans).</t>
-  </si>
-  <si>
-    <t>Bob Gable</t>
-  </si>
-  <si>
-    <t>GC notes</t>
-  </si>
-  <si>
-    <t>12/5: Called late, no answer. Sent email describing project and including plans. Invited for a visit and to submit a bid.
-12/7: Dave Glick (owner) responded. Offered to come Monday 2-4pm or Tuesday 7-8am. I accepted Monday 2pm.
-12/8: Dave confirmed. He will call with 30 min ETA.
-12/14: Site visit went well. Suggested keep the stack outside to the existing (to be moved) drain. Same with drain for utility sink. Also suggested to keep heating system simple. Will send estimate by the end of the week. Does not believe can do the work before the new year.
-12/18: Dave gave estimates. Ground work and general remodel plumbing $25,750, hot water recirculating system $1850, in floor radiant heating $13,720, runtall radiators $23,040</t>
-  </si>
-  <si>
-    <t>Wilcox</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>crystal@wilcox-electric.com</t>
-  </si>
-  <si>
-    <t>w: 202-546-1010
-w: 301-583-8888
-m: 202-664-4023</t>
-  </si>
-  <si>
-    <t>12/17: Doug put us in contact. We agreed to meet Friday 12/18 at 2pm. I sent email with plans.
-12/18: We will meet 12/28 at 9:30
-12/28: Eric forgot. I called him and he came quickly. We reviewed the job. He did not believe that the panel needed to be moved. He will put together a proposal in about a week. NOT AN ELECTRICIAN. Associated with licensed electrician Larry from Advanced Construction. 240-752-2588</t>
-  </si>
-  <si>
-    <t>12/5: Contacted via Wilcox business website. Briefly described project and asked for a bid.
-12/7: Called and set up a site visit for Dec 28 between 11:30 and 12:30.
-12/28: Steve Wilcox arrived. We reviewed the project. He thought the panel needed to be moved or the hot water heater needed to be moved. He will put together a proposal in about a week. He asked me to email plans, which I did.</t>
-  </si>
-  <si>
-    <t>McKevitt</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>HVAC/Plumbing</t>
-  </si>
-  <si>
-    <t>m: 240-527-0569</t>
-  </si>
-  <si>
-    <t>FDA: Bobby Thompson</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Rudy</t>
-  </si>
-  <si>
-    <t>JBR Electric, LLC</t>
-  </si>
-  <si>
-    <t>jbrrudylopez@yahoo.com</t>
-  </si>
-  <si>
-    <t>m: 301-537-3714</t>
-  </si>
-  <si>
-    <t>Rudy Lopez</t>
-  </si>
-  <si>
-    <t>Concrete on track for inspection Wed afternoon. Plumbing and electrical related to concrete in back should be also be ready. Discussed grading back yard. Remove timbers of raised garden. Add 6x6 timbers with dead men as a retaining wall in front of fence. Add rain leader from house to drain into retaining wall outside fence, which has a drain.</t>
-  </si>
-  <si>
-    <t>Concrete entry way, closet, and steps should be ready for concrete on Wednesday 12/30. Plumber will hopefully visit Tuesday. I asked if Oscar needed an inspection.</t>
-  </si>
-  <si>
-    <t>Follow up email on items from 12/26.</t>
-  </si>
-  <si>
-    <t>Met with Oscar and wall is being reduced. We talked about dirt being used to regrade sloping corner of yard. Oscar said he would do it.</t>
-  </si>
-  <si>
-    <t>I asked that I have a chance to request privacy windows for the master bath.</t>
-  </si>
-  <si>
-    <t>Oscar offered to put me in touch with his electrician. We also visited SPRC about the columns.</t>
-  </si>
-  <si>
-    <t>I asked that AC lines be cut and that the copper be saved for scrap sale. Oscar said ok.</t>
-  </si>
-  <si>
-    <t>North wall of back entry wall too tall. We will talk about it on Satuday 12/26</t>
-  </si>
-  <si>
-    <t>Inspector returned and passed us for concrete footings.</t>
-  </si>
-  <si>
-    <t>Oscar Flores sent Rudy to visit. He can do the job for $14,900, not sure about fixtures, coax/ethernet. I said lets do it. He will do rough-out for sconces at steps in back right away.</t>
-  </si>
-  <si>
-    <t>Asked Bob to visit Tuesday when drains exposed for concrete. Asked for receipts ($500, $1500). Asked for estimates (plumbing, heating).</t>
-  </si>
-  <si>
-    <t>Change of plans. Use existing area drain. No plumbing now.</t>
-  </si>
-  <si>
-    <t>Made plan with plumber and paid him $1500 deposit.</t>
-  </si>
-  <si>
-    <t>Sent building permit number. Began relationship with inspector. Need to talk to inspector. Received estimate of project $3000.</t>
-  </si>
-  <si>
-    <t>Site visit went well. He will be able to do the project. Asked for me to send building permit #. Asked me to talk to 3rd party inspector about area drain (to sewer or to sump). He will send an estimate.</t>
-  </si>
-  <si>
-    <t>Had not heard anything. Called to see if interested. Agreed on site visit on Wed 12/16 around 4pm. Need to deal with drain in foundation.</t>
-  </si>
-  <si>
-    <t>Shawn arrived 10 minutes early and completed disconnect in 1 hour. Started to discuss rest of project and he said I should talk to his father-in-law Bob, furnace expert. Sent drawings and rfp.</t>
-  </si>
-  <si>
-    <t>Shawn Mullan called asked if he could come early, 9am.</t>
-  </si>
-  <si>
-    <t>Called. Priced the disconnect of 2 AC units at $500. Arranged the job for Friday at 10am. We will discuss rest of project.</t>
-  </si>
-  <si>
-    <t>contatct date</t>
-  </si>
-  <si>
-    <t>Bob visited. We decided to cut and cap the drain from the gutters. He will do Wed am 12/30. We talked about moving water heater options and also talked about replacing boiler with condenser boiler/hot water heater combo. He sent brochure. It is small and can go anywhere. He will get me an estimate on the main plumbing job for the new bathrooms. He will get me receipts for work.</t>
-  </si>
-  <si>
-    <t>Researched 96,000 BTU Output Challenger Combo Boiler - Space Heating &amp; Domestic Hot Water (condensing)
-SKU:CC-125, Brand: Triangle Tube. It costs $2659.95. Replace existing is top option.</t>
-  </si>
-  <si>
-    <t>Bob cut and capped original drain from gutters.</t>
-  </si>
-  <si>
-    <t>Inspector came and passed our foundation/slab at back exit. He said replacing boiler and HW with small combo unit was a good idea. Eliminate conflicts with existing panel. Cement not coming until Monday. We discussed demo chimney instead of repair and extend: even swap. Proposal for church work coming tomorrow morning.</t>
-  </si>
-  <si>
-    <t>Discussed adding a sub-panel on the third floor instead of new panel in basement. Hoped for a discoung.</t>
-  </si>
-  <si>
-    <t>Can't start today. On another job. He will be ready for cement on Monday. He will install phone/coax/ethernet offsetting cost bonus of the sub-panel approach.</t>
-  </si>
-  <si>
-    <t>Otvos</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>WarmBoard</t>
-  </si>
-  <si>
-    <t>In-floor radiant heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> potvos@warmboard.com</t>
-  </si>
-  <si>
-    <t>w: 831-219-1036</t>
-  </si>
-  <si>
-    <t>Began proposal process. Shared drawings pdf and gross estimates ($7.59 -Structural, $6.99 -Retrofit). Next steps: cad files ($200 fee if pdf), design ($500), and design questions.</t>
-  </si>
-  <si>
-    <t>Ahmann</t>
-  </si>
-  <si>
-    <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details.</t>
-  </si>
-  <si>
-    <t>Bob replied. $7000 to install combo boiler/dhw and $12000 for bathrooms.</t>
-  </si>
-  <si>
-    <t>I said let's do Bosch. Asked when and how long it will take. I asked to talk about details. Bob called later and we talked about details. I will cc him when I email warmboard supplier.</t>
+12/21: Merrick lowered price to $24,600 or $21,500 (I buy lights and bath fans).
+1/5: I told Merrick we went with another electrician. He responded, "kool no problem"</t>
+  </si>
+  <si>
+    <t>Chenault</t>
+  </si>
+  <si>
+    <t>Ozkal</t>
+  </si>
+  <si>
+    <t>Tebessum</t>
+  </si>
+  <si>
+    <t>jc@lourenconsult.com</t>
+  </si>
+  <si>
+    <t>contact date</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1053,9 +1082,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1384,7 +1410,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="24" customWidth="1"/>
     <col min="3" max="5" width="14.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="37" style="11" customWidth="1"/>
@@ -1395,87 +1421,87 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>42368</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>265</v>
+      <c r="B2" s="24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>42367</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>242</v>
+      <c r="B3" s="24" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>42365</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>243</v>
+      <c r="B4" s="24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>42365</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>244</v>
+      <c r="B5" s="24" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>42364</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>245</v>
+      <c r="B6" s="24" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>42364</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>246</v>
+      <c r="B7" s="24" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>42364</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>247</v>
+      <c r="B8" s="24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>42364</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>248</v>
+      <c r="B9" s="24" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>42362</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>249</v>
+      <c r="B10" s="24" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>42360</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>250</v>
+      <c r="B11" s="24" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1495,10 +1521,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1561,7 @@
         <v>69</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>73</v>
@@ -1554,6 +1580,12 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>214</v>
       </c>
@@ -1580,6 +1612,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
@@ -1589,7 +1624,9 @@
       <c r="E3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>218</v>
       </c>
@@ -1597,7 +1634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1618,12 +1655,12 @@
         <v>208</v>
       </c>
       <c r="H4" s="19">
-        <f>Plumbing!$A$8</f>
+        <f>Plumbing!$A$9</f>
         <v>42367</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>(Plumbing!$B$3)</f>
-        <v>I said let's do Bosch. Asked when and how long it will take. I asked to talk about details. Bob called later and we talked about details. I will cc him when I email warmboard supplier.</v>
+        <v>Bob gave his recommendation after reading the manuals for the Bosch and Triangle Tube. He recommended Triangle Tube. I said ok. He will get started. Parts delivered in about a week. Install in one day.</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>198</v>
@@ -1657,70 +1694,73 @@
       <c r="H5" s="19"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H6" s="19">
-        <f>Electrical!$A$5</f>
+        <f>Electrical!$A$7</f>
         <v>42367</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f>Electrical!$B$5</f>
-        <v>Oscar Flores sent Rudy to visit. He can do the job for $14,900, not sure about fixtures, coax/ethernet. I said lets do it. He will do rough-out for sconces at steps in back right away.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <f>Electrical!$B$3</f>
+        <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="H7" s="19">
+        <v>42373</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="19">
-        <v>42369</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1742,22 +1782,22 @@
       <c r="G8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>221</v>
+      <c r="I8" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>150</v>
@@ -1766,13 +1806,13 @@
         <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>160</v>
@@ -1781,7 +1821,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1800,14 +1840,14 @@
       <c r="G10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>229</v>
+      <c r="I10" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1829,8 +1869,8 @@
       <c r="G11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>224</v>
+      <c r="I11" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>159</v>
@@ -1861,7 +1901,7 @@
       <c r="G12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>204</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1922,7 +1962,7 @@
       <c r="G14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -1948,7 +1988,7 @@
       <c r="G15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>107</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1980,7 +2020,7 @@
       <c r="G16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>122</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -2035,7 +2075,7 @@
       <c r="G18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>123</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -2055,7 +2095,7 @@
       <c r="G19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>193</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -2084,7 +2124,7 @@
       <c r="G20" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>191</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -2102,7 +2142,7 @@
       <c r="G21" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>190</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2126,7 +2166,7 @@
       <c r="G22" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -2147,7 +2187,7 @@
       <c r="G23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="20" t="s">
         <v>184</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2156,19 +2196,19 @@
     </row>
     <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2242,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>42374</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>42373</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>42368</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>42367</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42367</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -2216,185 +2325,140 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>42368</v>
+        <v>42373</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>42367</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>42367</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>42372</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>42372</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
+        <v>42372</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>42370</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>42368</v>
-      </c>
       <c r="B6" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>42368</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
+        <v>42368</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>42367</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="B9" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>42365</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>42361</v>
-      </c>
       <c r="B10" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
+        <v>42361</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>42356</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>42355</v>
-      </c>
       <c r="B12" s="16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
+        <v>42353</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>42349</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="B16" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>42348</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="B17" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>42347</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>260</v>
+      <c r="B18" s="16" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="292">
   <si>
     <t>Apergis</t>
   </si>
@@ -895,9 +895,6 @@
     <t>Ahmann</t>
   </si>
   <si>
-    <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details.</t>
-  </si>
-  <si>
     <t>Bob replied. $7000 to install combo boiler/dhw and $12000 for bathrooms.</t>
   </si>
   <si>
@@ -965,6 +962,25 @@
   </si>
   <si>
     <t>contact date</t>
+  </si>
+  <si>
+    <t>Installed Triangle tube challenger $7000 ($2700 appliance).</t>
+  </si>
+  <si>
+    <t>Receipt received. System not operating properly. Bob revisited bled the air out of system.</t>
+  </si>
+  <si>
+    <t>System still not operating properly… too hot. Bob stopped by and installed outdoor reset control (via exterior thermostat).</t>
+  </si>
+  <si>
+    <t>System still not operating properly… too cold. Bob will visit on Monday to "fine tune".</t>
+  </si>
+  <si>
+    <t>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</t>
+  </si>
+  <si>
+    <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details. 
+Bosch Greenstar ZWB28-3A23, module IPM2 for two heating zones and mixing capability, optional concentric vent kit for horizontal direct vent</t>
   </si>
 </sst>
 </file>
@@ -1520,11 +1536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1577,7 @@
         <v>69</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>73</v>
@@ -1581,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>214</v>
@@ -1613,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>89</v>
@@ -1625,7 +1641,7 @@
         <v>215</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>218</v>
@@ -1655,12 +1671,12 @@
         <v>208</v>
       </c>
       <c r="H4" s="19">
-        <f>Plumbing!$A$9</f>
-        <v>42367</v>
+        <f>Plumbing!$A$3</f>
+        <v>42380</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>(Plumbing!$B$3)</f>
-        <v>Bob gave his recommendation after reading the manuals for the Bosch and Triangle Tube. He recommended Triangle Tube. I said ok. He will get started. Parts delivered in about a week. Install in one day.</v>
+        <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>198</v>
@@ -1725,7 +1741,7 @@
         <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -1754,7 +1770,7 @@
         <v>42373</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>269</v>
@@ -1783,7 +1799,7 @@
         <v>141</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>101</v>
@@ -1812,7 +1828,7 @@
         <v>226</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>160</v>
@@ -1841,7 +1857,7 @@
         <v>213</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>91</v>
@@ -1870,7 +1886,7 @@
         <v>209</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>159</v>
@@ -2269,7 +2285,7 @@
         <v>42374</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2293,7 @@
         <v>42373</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2311,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,129 +2351,169 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
+        <v>42380</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>42379</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>42378</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>42377</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42376</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>42373</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="B8" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>42372</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="B9" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>42372</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="B10" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>42370</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="B11" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>42368</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>42368</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>42367</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>42365</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>42361</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>42356</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>42355</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>42354</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
-        <v>42353</v>
+        <v>42365</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>42349</v>
+        <v>42361</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>42348</v>
+        <v>42356</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
+        <v>42355</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>42354</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>42353</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>42349</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>42348</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>42347</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>256</v>
       </c>
     </row>

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6900" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="GCcandidates" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="305">
   <si>
     <t>Apergis</t>
   </si>
@@ -981,6 +981,45 @@
   <si>
     <t>Found Bosch unit. Better gpm for hot water. Name brand for parts and service. ZWB28-3. Asked for estimates related to boiler (remove existing, install new, servew new batrooms, in-floor radiant heating) and bathrooms. Asked to talk about details. 
 Bosch Greenstar ZWB28-3A23, module IPM2 for two heating zones and mixing capability, optional concentric vent kit for horizontal direct vent</t>
+  </si>
+  <si>
+    <t>Lemus</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Lemus Painting Construction</t>
+  </si>
+  <si>
+    <t>Insullation, drywall, painting, flooring</t>
+  </si>
+  <si>
+    <t>m: 240-464-0165</t>
+  </si>
+  <si>
+    <t>2/18: Walked Rock through project. He was a bit overwhelmed. He can handle insulation, drywall, painting, flooring. Maybe tile.</t>
+  </si>
+  <si>
+    <t>Zahmati</t>
+  </si>
+  <si>
+    <t>Reza</t>
+  </si>
+  <si>
+    <t>MRZ Interior Design / Construction LLC</t>
+  </si>
+  <si>
+    <t>custom carpentry</t>
+  </si>
+  <si>
+    <t>design.rezazahmati@gmail.com</t>
+  </si>
+  <si>
+    <t>m: 202-370-7247</t>
+  </si>
+  <si>
+    <t>2/29: Walked Reza through project. He wants to take some pictures and will submit a bid.</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1114,6 +1153,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,13 +1576,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,606 +1692,665 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="19">
-        <f>Plumbing!$A$3</f>
-        <v>42380</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f>(Plumbing!$B$3)</f>
-        <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>198</v>
+        <v>303</v>
+      </c>
+      <c r="H4" s="25">
+        <v>42429</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="10"/>
+        <v>296</v>
+      </c>
+      <c r="H5" s="25">
+        <v>42418</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="19">
+        <f>Plumbing!$A$3</f>
+        <v>42380</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>(Plumbing!$B$3)</f>
+        <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H8" s="19">
         <f>Electrical!$A$7</f>
         <v>42367</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I8" s="10" t="str">
         <f>Electrical!$B$3</f>
         <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H9" s="19">
         <v>42373</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="270" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>139</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I12" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="255" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="17" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="18" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="2:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+    <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I21" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I22" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I23" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I25" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L23">
+  <autoFilter ref="A1:L25">
     <sortState ref="A2:K21">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="edyleonel2013@gmail.com"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F17" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="F13" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7" display="merrickbes@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F19" r:id="rId9"/>
-    <hyperlink ref="F23" r:id="rId10"/>
-    <hyperlink ref="F20" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12" display="sales@rbincorporated.com"/>
-    <hyperlink ref="F10" r:id="rId13"/>
+    <hyperlink ref="F17" r:id="rId1" display="edyleonel2013@gmail.com"/>
+    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F16" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F21" r:id="rId9"/>
+    <hyperlink ref="F25" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12" display="sales@rbincorporated.com"/>
+    <hyperlink ref="F12" r:id="rId13"/>
     <hyperlink ref="F2" r:id="rId14"/>
-    <hyperlink ref="F9" r:id="rId15"/>
-    <hyperlink ref="F6" r:id="rId16"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F8" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
@@ -2329,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -14,14 +14,14 @@
     <sheet name="GCcandidates" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="335">
   <si>
     <t>Apergis</t>
   </si>
@@ -986,9 +986,6 @@
     <t>Lemus</t>
   </si>
   <si>
-    <t>Rock</t>
-  </si>
-  <si>
     <t>Lemus Painting Construction</t>
   </si>
   <si>
@@ -1020,13 +1017,108 @@
   </si>
   <si>
     <t>2/29: Walked Reza through project. He wants to take some pictures and will submit a bid.</t>
+  </si>
+  <si>
+    <t>Marios</t>
+  </si>
+  <si>
+    <t>Rock, Rodolfo</t>
+  </si>
+  <si>
+    <t>Demo …</t>
+  </si>
+  <si>
+    <t>m: 443-447-4804</t>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Datum East, Inc.</t>
+  </si>
+  <si>
+    <t>Surveyor, wall check</t>
+  </si>
+  <si>
+    <t>datumeastinc@aol.com</t>
+  </si>
+  <si>
+    <t>m: 703-505- 2482</t>
+  </si>
+  <si>
+    <t>205 North Lincoln Avenue
+Sterling, Virginia 20164
+(703) 430 – 7238</t>
+  </si>
+  <si>
+    <t>Josue</t>
+  </si>
+  <si>
+    <t>m: 240-876-2592</t>
+  </si>
+  <si>
+    <t>Asked for a bid to finish laying brick in chimney void. He said he would come over later today.</t>
+  </si>
+  <si>
+    <t>Called in the am to discuss demo in ceiling of master bedroom and bathroom. He came later. Said he could do wednesday: 3 guys at $30/hour.</t>
+  </si>
+  <si>
+    <t>Corado</t>
+  </si>
+  <si>
+    <t>Hezam</t>
+  </si>
+  <si>
+    <t>Hashem</t>
+  </si>
+  <si>
+    <t>hashemhezam@yahoo.com</t>
+  </si>
+  <si>
+    <t>m: 202-853-8150</t>
+  </si>
+  <si>
+    <t>Plumber, subcontractor of Bob Gable. Started working/planning rough installation of plumbing for two master baths.</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Carlos Fine Carpentry</t>
+  </si>
+  <si>
+    <t>Roofing Repair and Installation, Painting, Powerwash</t>
+  </si>
+  <si>
+    <t>m: 240-429-1122</t>
+  </si>
+  <si>
+    <t>Roofer/framer subcontractor of Oscar Flores who built my addition!</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>m: 703-928-0292</t>
+  </si>
+  <si>
+    <t>Tlaked to Ruben. Said he would come tomorrow, maybe around noon.</t>
+  </si>
+  <si>
+    <t>Divi Harris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1088,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1157,6 +1255,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1576,13 +1675,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,28 +1796,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="25">
         <v>42429</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>91</v>
@@ -1732,628 +1831,792 @@
         <v>292</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H5" s="25">
         <v>42418</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="25">
+        <v>42461</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="25">
+        <v>42724</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="25">
+        <v>42481</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H12" s="19">
         <f>Plumbing!$A$3</f>
         <v>42380</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I12" s="10" t="str">
         <f>(Plumbing!$B$3)</f>
         <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H13" s="19"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H14" s="19">
         <f>Electrical!$A$7</f>
         <v>42367</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I14" s="10" t="str">
         <f>Electrical!$B$3</f>
         <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H15" s="19">
         <v>42373</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="16" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="17" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I17" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="18" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="19" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="20" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="22" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I22" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="24" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I24" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I28" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L25">
+  <autoFilter ref="A1:L31">
     <sortState ref="A2:K21">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" display="edyleonel2013@gmail.com"/>
-    <hyperlink ref="F18" r:id="rId2"/>
-    <hyperlink ref="F19" r:id="rId3"/>
-    <hyperlink ref="F20" r:id="rId4"/>
-    <hyperlink ref="F16" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7" display="merrickbes@gmail.com"/>
-    <hyperlink ref="F13" r:id="rId8"/>
-    <hyperlink ref="F21" r:id="rId9"/>
-    <hyperlink ref="F25" r:id="rId10"/>
-    <hyperlink ref="F22" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12" display="sales@rbincorporated.com"/>
-    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="F23" r:id="rId1" display="edyleonel2013@gmail.com"/>
+    <hyperlink ref="F24" r:id="rId2"/>
+    <hyperlink ref="F25" r:id="rId3"/>
+    <hyperlink ref="F26" r:id="rId4"/>
+    <hyperlink ref="F22" r:id="rId5"/>
+    <hyperlink ref="F21" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="F19" r:id="rId8"/>
+    <hyperlink ref="F27" r:id="rId9"/>
+    <hyperlink ref="F31" r:id="rId10"/>
+    <hyperlink ref="F28" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12" display="sales@rbincorporated.com"/>
+    <hyperlink ref="F18" r:id="rId13"/>
     <hyperlink ref="F2" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
-    <hyperlink ref="F8" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F14" r:id="rId16"/>
+    <hyperlink ref="F9" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -14,14 +14,14 @@
     <sheet name="GCcandidates" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="376">
   <si>
     <t>Apergis</t>
   </si>
@@ -1112,6 +1112,138 @@
   </si>
   <si>
     <t>Divi Harris</t>
+  </si>
+  <si>
+    <t>Zepeda</t>
+  </si>
+  <si>
+    <t>Edil</t>
+  </si>
+  <si>
+    <t>Edil Construction LLC</t>
+  </si>
+  <si>
+    <t>remodeling, roofing, decks, siding, painting</t>
+  </si>
+  <si>
+    <t>edilmendezzepeda@gmail.com</t>
+  </si>
+  <si>
+    <t>301-803-0766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Flores: Edil painted for Oscar. </t>
+  </si>
+  <si>
+    <t>MPC Construction</t>
+  </si>
+  <si>
+    <t>remodeling, tile</t>
+  </si>
+  <si>
+    <t>mpcconstruction@hotmail.com</t>
+  </si>
+  <si>
+    <t>571-426-6633</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Turicos</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>703-587-6320</t>
+  </si>
+  <si>
+    <t>7/5/16: He was referred to me by the MPC Construction painter who is too busy to bid on my job.</t>
+  </si>
+  <si>
+    <t>MPC Construction painter</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>Hernan</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>framing and finish</t>
+  </si>
+  <si>
+    <t>hernan.juarez29@yahoo.com</t>
+  </si>
+  <si>
+    <t>7/1/16: He gave his bid at $7800. Start Monday 7/11. Power-wash, scrape (?), one coat primer, two coats paint. He wants me to walk him through the interior scope of the project. I haven't seen his interior work.
+7/5/16: Talked Edil down to $7000. He will send a contract by Saturday and start work on Monday.
+7/9/16: Contract received. Need $4000 down payment. Work begins on Monday.</t>
+  </si>
+  <si>
+    <t>7/1/16: I called and texted after I meet his painter working for chandler across the street. He is out of town 4july and will get back to me on Monday. I emailed him the scope. Sounds like he could do a lot.
+7/7/16: No word from MPC. Sent email to check if interested. Quick response. Walkthrough scheduled for 11:30 7/8/16.
+7/8/16: Milton showed up, a little late. Quick walk through. Forgot to as when he will send a bid.</t>
+  </si>
+  <si>
+    <t>7/1/16: Spoke with Juarin on the phone. Told him about the project. He will come Wed at 5pm. Sounds like he could do a lot.
+7/6/16: Showed up for appointment on time. Communicated well enough. Coming back on Friday with partner to measure for bid.
+7/8/16: Hernan was late for 1pm walk through. I called and he asked to come later at 4pm. He came with Jose Grajeda, tile guy. They took a lot of measurements. Bid expected Sat.</t>
+  </si>
+  <si>
+    <t>Grajeda</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Marble and tile</t>
+  </si>
+  <si>
+    <t>202-676-7128</t>
+  </si>
+  <si>
+    <t>7/8/2016: Jose came with Hernan Juarez and measured the tile job. He offered his bid on the spot, but I said I couldn't say yes or no until I got another bid. He send bid next day: $3000 for third floor, $3000 master bath, $600 for sunroom. I said I liked the bid and we would start after inspection and spray foam.</t>
+  </si>
+  <si>
+    <t>Jose Grajeda</t>
+  </si>
+  <si>
+    <t>12819 Cristfield Rd
+Silver Spring MD 20906</t>
+  </si>
+  <si>
+    <t>Nova Foam</t>
+  </si>
+  <si>
+    <t>855-668-2362</t>
+  </si>
+  <si>
+    <t>info@NovaSprayFoam.com</t>
+  </si>
+  <si>
+    <t>Spray Foam</t>
+  </si>
+  <si>
+    <t>7/1/16: I called. Guy called me back. I gave him my time frame. He said I was on his radar.
+7/11/16: After not hearing from anyone, I called again. Guy is supposed to call me back.</t>
+  </si>
+  <si>
+    <t>P.O. Box 895
+Purcellville, VA, 20143</t>
+  </si>
+  <si>
+    <t>raj</t>
   </si>
 </sst>
 </file>
@@ -1675,13 +1807,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1825,7 @@
     <col min="8" max="8" width="11.7109375" style="18" customWidth="1"/>
     <col min="9" max="9" width="37" style="18" customWidth="1"/>
     <col min="10" max="10" width="37" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="5" customWidth="1"/>
     <col min="13" max="15" width="9.140625" style="5"/>
   </cols>
@@ -1733,284 +1865,247 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>283</v>
-      </c>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>216</v>
+        <v>372</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>218</v>
+        <v>340</v>
+      </c>
+      <c r="H3" s="25">
+        <v>42552</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="H4" s="25">
-        <v>42429</v>
+        <v>42552</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="H5" s="25">
-        <v>42418</v>
+        <v>42552</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>364</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="H6" s="25">
-        <v>42478</v>
+        <v>42559</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>318</v>
+        <v>366</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>313</v>
+        <v>349</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="H7" s="25">
-        <v>42461</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" s="25">
-        <v>42478</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>317</v>
+        <v>42556</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9"/>
+        <v>283</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="25">
-        <v>42478</v>
+        <v>216</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>324</v>
+        <v>219</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" t="s">
-        <v>327</v>
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="H10" s="25">
-        <v>42724</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>330</v>
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11"/>
+        <v>298</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="26" t="s">
-        <v>332</v>
+        <v>300</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="H11" s="25">
-        <v>42481</v>
+        <v>42429</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>334</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2018,605 +2113,797 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="25">
+        <v>42418</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="25">
+        <v>42461</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" s="25">
+        <v>42724</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="25">
+        <v>42481</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H19" s="19">
         <f>Plumbing!$A$3</f>
         <v>42380</v>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I19" s="10" t="str">
         <f>(Plumbing!$B$3)</f>
         <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="H20" s="19"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H21" s="19">
         <f>Electrical!$A$7</f>
         <v>42367</v>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I21" s="10" t="str">
         <f>Electrical!$B$3</f>
         <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="22" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H22" s="19">
         <v>42373</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="23" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I23" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="270" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="24" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I24" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="25" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="26" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="27" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I27" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="255" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="29" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="31" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="33" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I33" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+    <row r="34" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I34" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+    <row r="35" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
+    <row r="36" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I36" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I38" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31">
+  <autoFilter ref="A1:L38">
     <sortState ref="A2:K21">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="edyleonel2013@gmail.com"/>
-    <hyperlink ref="F24" r:id="rId2"/>
-    <hyperlink ref="F25" r:id="rId3"/>
-    <hyperlink ref="F26" r:id="rId4"/>
-    <hyperlink ref="F22" r:id="rId5"/>
-    <hyperlink ref="F21" r:id="rId6"/>
-    <hyperlink ref="F16" r:id="rId7" display="merrickbes@gmail.com"/>
-    <hyperlink ref="F19" r:id="rId8"/>
-    <hyperlink ref="F27" r:id="rId9"/>
-    <hyperlink ref="F31" r:id="rId10"/>
-    <hyperlink ref="F28" r:id="rId11"/>
-    <hyperlink ref="F20" r:id="rId12" display="sales@rbincorporated.com"/>
-    <hyperlink ref="F18" r:id="rId13"/>
-    <hyperlink ref="F2" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="F14" r:id="rId16"/>
-    <hyperlink ref="F9" r:id="rId17"/>
+    <hyperlink ref="F30" r:id="rId1" display="edyleonel2013@gmail.com"/>
+    <hyperlink ref="F31" r:id="rId2"/>
+    <hyperlink ref="F32" r:id="rId3"/>
+    <hyperlink ref="F33" r:id="rId4"/>
+    <hyperlink ref="F29" r:id="rId5"/>
+    <hyperlink ref="F28" r:id="rId6"/>
+    <hyperlink ref="F23" r:id="rId7" display="merrickbes@gmail.com"/>
+    <hyperlink ref="F26" r:id="rId8"/>
+    <hyperlink ref="F34" r:id="rId9"/>
+    <hyperlink ref="F38" r:id="rId10"/>
+    <hyperlink ref="F35" r:id="rId11"/>
+    <hyperlink ref="F27" r:id="rId12" display="sales@rbincorporated.com"/>
+    <hyperlink ref="F25" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="F24" r:id="rId15"/>
+    <hyperlink ref="F21" r:id="rId16"/>
+    <hyperlink ref="F16" r:id="rId17"/>
+    <hyperlink ref="F3" r:id="rId18"/>
+    <hyperlink ref="F4" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
+++ b/000house/20140216 Porch and Master Bath/Contractors/Contractors.xlsx
@@ -14,14 +14,14 @@
     <sheet name="GCcandidates" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subs!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="385">
   <si>
     <t>Apergis</t>
   </si>
@@ -736,9 +736,6 @@
     <t>m: 202-412-3826</t>
   </si>
   <si>
-    <t>12/17: Filed my client information, "Notification of Intent To Use Third Party Inspection" and my building permit.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lourenco Consultants
 5171 MacArthur Blvd., NW
 Suite 100
@@ -1186,16 +1183,6 @@
     <t>hernan.juarez29@yahoo.com</t>
   </si>
   <si>
-    <t>7/1/16: He gave his bid at $7800. Start Monday 7/11. Power-wash, scrape (?), one coat primer, two coats paint. He wants me to walk him through the interior scope of the project. I haven't seen his interior work.
-7/5/16: Talked Edil down to $7000. He will send a contract by Saturday and start work on Monday.
-7/9/16: Contract received. Need $4000 down payment. Work begins on Monday.</t>
-  </si>
-  <si>
-    <t>7/1/16: I called and texted after I meet his painter working for chandler across the street. He is out of town 4july and will get back to me on Monday. I emailed him the scope. Sounds like he could do a lot.
-7/7/16: No word from MPC. Sent email to check if interested. Quick response. Walkthrough scheduled for 11:30 7/8/16.
-7/8/16: Milton showed up, a little late. Quick walk through. Forgot to as when he will send a bid.</t>
-  </si>
-  <si>
     <t>7/1/16: Spoke with Juarin on the phone. Told him about the project. He will come Wed at 5pm. Sounds like he could do a lot.
 7/6/16: Showed up for appointment on time. Communicated well enough. Coming back on Friday with partner to measure for bid.
 7/8/16: Hernan was late for 1pm walk through. I called and he asked to come later at 4pm. He came with Jose Grajeda, tile guy. They took a lot of measurements. Bid expected Sat.</t>
@@ -1213,9 +1200,6 @@
     <t>202-676-7128</t>
   </si>
   <si>
-    <t>7/8/2016: Jose came with Hernan Juarez and measured the tile job. He offered his bid on the spot, but I said I couldn't say yes or no until I got another bid. He send bid next day: $3000 for third floor, $3000 master bath, $600 for sunroom. I said I liked the bid and we would start after inspection and spray foam.</t>
-  </si>
-  <si>
     <t>Jose Grajeda</t>
   </si>
   <si>
@@ -1226,17 +1210,10 @@
     <t>Nova Foam</t>
   </si>
   <si>
-    <t>855-668-2362</t>
-  </si>
-  <si>
     <t>info@NovaSprayFoam.com</t>
   </si>
   <si>
     <t>Spray Foam</t>
-  </si>
-  <si>
-    <t>7/1/16: I called. Guy called me back. I gave him my time frame. He said I was on his radar.
-7/11/16: After not hearing from anyone, I called again. Guy is supposed to call me back.</t>
   </si>
   <si>
     <t>P.O. Box 895
@@ -1244,6 +1221,71 @@
   </si>
   <si>
     <t>raj</t>
+  </si>
+  <si>
+    <t>7/1/16: I called. Guy called me back. I gave him my time frame. He said I was on his radar.
+7/11/16: After not hearing from anyone, I called again. Guy is supposed to call me back.
+7/28/16: It took a while before Jared McDonald did a site visit and provided an estimate, $7650. We will schedule after rough-in inspection.</t>
+  </si>
+  <si>
+    <t>12/17: Filed my client information, "Notification of Intent To Use Third Party Inspection" and my building permit.
+7/28: Problems with electrical permits inspected by DCRA. Hope to resolve Tuesday 8/2. Lori Fowler contact for third-party inspections at DCRA (202-442-8367). Inspector Reiss contact at DCRA Office of Director: 202-481-3384</t>
+  </si>
+  <si>
+    <t>7/1/16: He gave his bid at $7800. Start Monday 7/11. Power-wash, scrape (?), one coat primer, two coats paint. He wants me to walk him through the interior scope of the project. I haven't seen his interior work.
+7/5/16: Talked Edil down to $7000. He will send a contract by Saturday and start work on Monday.
+7/9/16: Contract received. Need $4000 down payment. Work begins on Monday.
+7/28: Painting looks about done. I asked what is left and asked for a bid for interior drywall, tile, and paint.</t>
+  </si>
+  <si>
+    <t>7/1/16: I called and texted after I meet his painter working for chandler across the street. He is out of town 4july and will get back to me on Monday. I emailed him the scope. Sounds like he could do a lot.
+7/7/16: No word from MPC. Sent email to check if interested. Quick response. Walkthrough scheduled for 11:30 7/8/16.
+7/8/16: Milton showed up, a little late. Quick walk through. Forgot to as when he will send a bid.
+7/28: I have asked a couple times for his bid and he has not responded.</t>
+  </si>
+  <si>
+    <t>Rigo</t>
+  </si>
+  <si>
+    <t>Multiservices Contractor</t>
+  </si>
+  <si>
+    <t>framing and finish, etc</t>
+  </si>
+  <si>
+    <t>240-432-9718</t>
+  </si>
+  <si>
+    <t>zaldana604@gmail.com</t>
+  </si>
+  <si>
+    <t>Zaldana</t>
+  </si>
+  <si>
+    <t>7/13: He contacted me after Hernan Juarez was too busy to bid.
+7/14: He came for a site visit.
+7/18: He provided a bid, $18,650:
+  drywall: $5750
+  paint: $3700
+  carpentry: $1700
+  tile: $7500
+7/25: He checked on when he could start.
+7/28: I updated him. Delay until permit issue resolved 8/2. I will update him again after that.</t>
+  </si>
+  <si>
+    <t>7/8/2016: Jose came with Hernan Juarez and measured the tile job. He offered his bid on the spot, but I said I couldn't say yes or no until I got another bid. He send bid next day: $3000 for third floor, $3000 master bath, $600 for sunroom. I said I liked the bid and we would start after inspection and spray foam.
+7/26: Jose checked in. I told him delay with inspection.
+7/28: I updated Jose. Another delay. Will update again next Tuesday 8/2.</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>w: 855-668-2362
+m: 703-424-0550</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1718,7 +1760,7 @@
         <v>42368</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1726,7 +1768,7 @@
         <v>42367</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1734,7 +1776,7 @@
         <v>42365</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1784,7 @@
         <v>42365</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1750,7 +1792,7 @@
         <v>42364</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1800,7 @@
         <v>42364</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1808,7 @@
         <v>42364</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1816,7 @@
         <v>42364</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1824,7 @@
         <v>42362</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1832,7 @@
         <v>42360</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1807,13 +1849,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1892,7 @@
         <v>69</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>73</v>
@@ -1865,157 +1907,216 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="D2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="H3" s="25">
         <v>42552</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="25">
+        <v>42564</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="25">
-        <v>42552</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="H5" s="25">
-        <v>42552</v>
+        <v>42559</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>363</v>
+        <v>282</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>364</v>
+        <v>215</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="25">
-        <v>42559</v>
+        <v>217</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>366</v>
+        <v>371</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>348</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>349</v>
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="25">
-        <v>42556</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>352</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="25">
+        <v>42429</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2023,57 +2124,50 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>216</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>217</v>
+        <v>294</v>
+      </c>
+      <c r="H9" s="25">
+        <v>42418</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>284</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>101</v>
+        <v>306</v>
+      </c>
+      <c r="H10" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2081,31 +2175,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="H11" s="25">
-        <v>42429</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>91</v>
+        <v>42461</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2113,315 +2204,319 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H12" s="25">
-        <v>42418</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="H12" s="19">
+        <f>Plumbing!$A$3</f>
+        <v>42380</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f>(Plumbing!$B$3)</f>
+        <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>304</v>
+        <v>206</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H13" s="25">
-        <v>42478</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" t="s">
-        <v>310</v>
+        <v>232</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="25">
-        <v>42461</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="19">
+        <f>Electrical!$A$7</f>
+        <v>42367</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f>Electrical!$B$3</f>
+        <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15"/>
+        <v>263</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="25">
-        <v>42478</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="19">
+        <v>42373</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16"/>
+        <v>355</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>323</v>
+        <v>343</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="H16" s="25">
-        <v>42478</v>
+        <v>42552</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="26" t="s">
-        <v>329</v>
+        <v>356</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="25">
-        <v>42724</v>
+        <v>42552</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C18" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H18" s="25">
+        <v>42556</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="25">
+        <v>42478</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="25">
+        <v>42724</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18"/>
-      <c r="E18" s="5" t="s">
+      <c r="D22"/>
+      <c r="E22" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="26" t="s">
+      <c r="H22" s="25">
+        <v>42481</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="H18" s="25">
-        <v>42481</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="K22" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="19">
-        <f>Plumbing!$A$3</f>
-        <v>42380</v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f>(Plumbing!$B$3)</f>
-        <v>Bob visited. He diagnoses the problem as the thermostat. We need one with zero residual voltage. We have one with some low residual voltage.</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" s="19">
-        <f>Electrical!$A$7</f>
-        <v>42367</v>
-      </c>
-      <c r="I21" s="10" t="str">
-        <f>Electrical!$B$3</f>
-        <v>We reviewed proposal and my addendum, signed it, and I paid 50%. Rudy will rough out the electrical for the cement today, get the permit, and get started on the rough out for the new service location.</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H22" s="19">
-        <v>42373</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="360" x14ac:dyDescent="0.25">
@@ -2447,7 +2542,7 @@
         <v>141</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>101</v>
@@ -2458,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>150</v>
@@ -2470,13 +2565,13 @@
         <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="I24" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>160</v>
@@ -2505,7 +2600,7 @@
         <v>213</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>91</v>
@@ -2534,7 +2629,7 @@
         <v>209</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>159</v>
@@ -2633,73 +2728,44 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>112</v>
@@ -2708,202 +2774,232 @@
         <v>102</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I34" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D34" s="5" t="s">
+    <row r="35" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I36" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
+    <row r="37" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I39" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>231</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38">
-    <sortState ref="A2:K21">
-      <sortCondition ref="A1:A21"/>
+  <autoFilter ref="A1:L39">
+    <sortState ref="A2:L40">
+      <sortCondition ref="A1:A39"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" display="edyleonel2013@gmail.com"/>
-    <hyperlink ref="F31" r:id="rId2"/>
-    <hyperlink ref="F32" r:id="rId3"/>
-    <hyperlink ref="F33" r:id="rId4"/>
+    <hyperlink ref="F31" r:id="rId1" display="edyleonel2013@gmail.com"/>
+    <hyperlink ref="F32" r:id="rId2"/>
+    <hyperlink ref="F33" r:id="rId3"/>
+    <hyperlink ref="F34" r:id="rId4"/>
     <hyperlink ref="F29" r:id="rId5"/>
     <hyperlink ref="F28" r:id="rId6"/>
     <hyperlink ref="F23" r:id="rId7" display="merrickbes@gmail.com"/>
     <hyperlink ref="F26" r:id="rId8"/>
-    <hyperlink ref="F34" r:id="rId9"/>
-    <hyperlink ref="F38" r:id="rId10"/>
-    <hyperlink ref="F35" r:id="rId11"/>
+    <hyperlink ref="F35" r:id="rId9"/>
+    <hyperlink ref="F39" r:id="rId10"/>
+    <hyperlink ref="F36" r:id="rId11"/>
     <hyperlink ref="F27" r:id="rId12" display="sales@rbincorporated.com"/>
     <hyperlink ref="F25" r:id="rId13"/>
-    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="F6" r:id="rId14"/>
     <hyperlink ref="F24" r:id="rId15"/>
-    <hyperlink ref="F21" r:id="rId16"/>
-    <hyperlink ref="F16" r:id="rId17"/>
+    <hyperlink ref="F14" r:id="rId16"/>
+    <hyperlink ref="F20" r:id="rId17"/>
     <hyperlink ref="F3" r:id="rId18"/>
-    <hyperlink ref="F4" r:id="rId19"/>
+    <hyperlink ref="F16" r:id="rId19"/>
+    <hyperlink ref="F4" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2928,7 +3024,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2936,7 +3032,7 @@
         <v>42374</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +3040,7 @@
         <v>42373</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2952,7 +3048,7 @@
         <v>42368</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +3056,7 @@
         <v>42367</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2968,7 +3064,7 @@
         <v>42367</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +3093,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3005,7 +3101,7 @@
         <v>42380</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3109,7 @@
         <v>42379</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3021,7 +3117,7 @@
         <v>42378</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3125,7 @@
         <v>42377</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3133,7 @@
         <v>42376</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3045,7 +3141,7 @@
         <v>42373</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3053,7 +3149,7 @@
         <v>42372</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3157,7 @@
         <v>42372</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3069,7 +3165,7 @@
         <v>42370</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3077,7 +3173,7 @@
         <v>42368</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3181,7 @@
         <v>42368</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3093,7 +3189,7 @@
         <v>42367</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3101,7 +3197,7 @@
         <v>42365</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3205,7 @@
         <v>42361</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3213,7 @@
         <v>42356</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3125,7 +3221,7 @@
         <v>42355</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3133,7 +3229,7 @@
         <v>42354</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3141,7 +3237,7 @@
         <v>42353</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3149,7 +3245,7 @@
         <v>42349</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3253,7 @@
         <v>42348</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3165,7 +3261,7 @@
         <v>42347</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
